--- a/AAII_Financials/Quarterly/TIKRF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TIKRF_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Quarterly/TIKRF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TIKRF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>TIKRF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,81 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +782,14 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +832,14 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,13 +906,15 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>100</v>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -896,7 +923,7 @@
         <v>100</v>
       </c>
       <c r="G12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
@@ -905,19 +932,19 @@
         <v>200</v>
       </c>
       <c r="J12" s="3">
+        <v>100</v>
+      </c>
+      <c r="K12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
+        <v>200</v>
+      </c>
+      <c r="M12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>100</v>
-      </c>
-      <c r="M12" s="3">
-        <v>200</v>
-      </c>
-      <c r="N12" s="3">
-        <v>200</v>
       </c>
       <c r="O12" s="3">
         <v>200</v>
@@ -925,8 +952,14 @@
       <c r="P12" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3">
+        <v>200</v>
+      </c>
+      <c r="R12" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,52 +1123,60 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3">
         <v>300</v>
       </c>
       <c r="G17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H17" s="3">
         <v>300</v>
       </c>
       <c r="I17" s="3">
+        <v>400</v>
+      </c>
+      <c r="J17" s="3">
         <v>300</v>
-      </c>
-      <c r="J17" s="3">
-        <v>400</v>
       </c>
       <c r="K17" s="3">
         <v>300</v>
       </c>
       <c r="L17" s="3">
+        <v>400</v>
+      </c>
+      <c r="M17" s="3">
         <v>300</v>
-      </c>
-      <c r="M17" s="3">
-        <v>400</v>
       </c>
       <c r="N17" s="3">
         <v>300</v>
       </c>
       <c r="O17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>300</v>
+      </c>
+      <c r="R17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,43 +1184,49 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="F18" s="3">
         <v>-300</v>
       </c>
       <c r="G18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-300</v>
-      </c>
       <c r="J18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-300</v>
-      </c>
       <c r="M18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-300</v>
-      </c>
       <c r="P18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,8 +1289,14 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1266,8 +1339,14 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,52 +1389,64 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
         <v>-200</v>
       </c>
       <c r="F23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="G23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-300</v>
-      </c>
       <c r="J23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-300</v>
-      </c>
       <c r="M23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-300</v>
-      </c>
       <c r="P23" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>-200</v>
       </c>
       <c r="F26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="G26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-300</v>
-      </c>
       <c r="J26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-300</v>
-      </c>
       <c r="M26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-300</v>
-      </c>
       <c r="P26" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>-200</v>
       </c>
       <c r="F27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="G27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-300</v>
-      </c>
       <c r="J27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-300</v>
-      </c>
       <c r="M27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-300</v>
-      </c>
       <c r="P27" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,52 +1889,64 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>-200</v>
       </c>
       <c r="F33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="G33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-300</v>
-      </c>
       <c r="J33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-300</v>
-      </c>
       <c r="M33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-300</v>
-      </c>
       <c r="P33" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>-200</v>
       </c>
       <c r="F35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="G35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-300</v>
-      </c>
       <c r="J35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-300</v>
-      </c>
       <c r="M35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-300</v>
-      </c>
       <c r="P35" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,79 +2138,87 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F41" s="3">
         <v>4500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>4700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>3500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>6200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>6600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>6700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>6900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>7200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>7500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>1500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>4900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>3600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>3500</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2055,16 +2234,22 @@
       <c r="P42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
@@ -2073,10 +2258,10 @@
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -2085,10 +2270,10 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
@@ -2099,8 +2284,14 @@
       <c r="P43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2334,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,52 +2384,64 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F46" s="3">
         <v>4600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>4800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>5000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>5300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>5600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>5900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>6200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>6600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>6800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>7000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>7300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>7600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,25 +2484,31 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
         <v>100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>300</v>
-      </c>
-      <c r="G48" s="3">
-        <v>100</v>
-      </c>
-      <c r="H48" s="3">
-        <v>100</v>
       </c>
       <c r="I48" s="3">
         <v>100</v>
@@ -2319,8 +2534,14 @@
       <c r="P48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>100</v>
+      </c>
+      <c r="R48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F54" s="3">
         <v>4700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>5000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>5300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>5400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>5700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>6000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>6300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>6700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>7000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>7100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>7500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>7700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2878,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2663,8 +2924,14 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,16 +2974,22 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F59" s="3">
         <v>300</v>
@@ -2725,16 +2998,16 @@
         <v>300</v>
       </c>
       <c r="H59" s="3">
+        <v>300</v>
+      </c>
+      <c r="I59" s="3">
+        <v>300</v>
+      </c>
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>200</v>
-      </c>
-      <c r="J59" s="3">
-        <v>300</v>
-      </c>
-      <c r="K59" s="3">
-        <v>300</v>
       </c>
       <c r="L59" s="3">
         <v>300</v>
@@ -2743,24 +3016,30 @@
         <v>300</v>
       </c>
       <c r="N59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>200</v>
+      </c>
+      <c r="R59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F60" s="3">
         <v>300</v>
@@ -2769,16 +3048,16 @@
         <v>300</v>
       </c>
       <c r="H60" s="3">
+        <v>300</v>
+      </c>
+      <c r="I60" s="3">
+        <v>300</v>
+      </c>
+      <c r="J60" s="3">
         <v>200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>200</v>
-      </c>
-      <c r="J60" s="3">
-        <v>300</v>
-      </c>
-      <c r="K60" s="3">
-        <v>300</v>
       </c>
       <c r="L60" s="3">
         <v>300</v>
@@ -2787,16 +3066,22 @@
         <v>300</v>
       </c>
       <c r="N60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>200</v>
+      </c>
+      <c r="R60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,37 +3124,43 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,34 +3324,40 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>200</v>
+      </c>
+      <c r="F66" s="3">
         <v>300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>200</v>
-      </c>
-      <c r="J66" s="3">
-        <v>300</v>
-      </c>
-      <c r="K66" s="3">
-        <v>300</v>
       </c>
       <c r="L66" s="3">
         <v>300</v>
@@ -3051,16 +3366,22 @@
         <v>300</v>
       </c>
       <c r="N66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>200</v>
+      </c>
+      <c r="R66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>4</v>
+      <c r="E72" s="3">
+        <v>-142700</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72" s="3">
         <v>-141700</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M72" s="3">
         <v>-140300</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-139100</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F76" s="3">
         <v>4400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>4600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>4900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>5100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>5500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>5800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>6100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>6400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>6600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>6900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>7300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>7500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>-200</v>
       </c>
       <c r="F81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="G81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-300</v>
-      </c>
       <c r="J81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-300</v>
-      </c>
       <c r="M81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-300</v>
-      </c>
       <c r="P81" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4319,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3936,8 +4369,14 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4439,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4589,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4809,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4368,8 +4859,14 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4909,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4957,12 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TIKRF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TIKRF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>TIKRF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,16 +921,17 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="3">
-        <v>100</v>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F12" s="3">
         <v>100</v>
@@ -929,25 +943,25 @@
         <v>100</v>
       </c>
       <c r="I12" s="3">
+        <v>100</v>
+      </c>
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>100</v>
-      </c>
-      <c r="K12" s="3">
-        <v>200</v>
       </c>
       <c r="L12" s="3">
         <v>200</v>
       </c>
       <c r="M12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N12" s="3">
         <v>100</v>
       </c>
       <c r="O12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P12" s="3">
         <v>200</v>
@@ -958,8 +972,11 @@
       <c r="R12" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,8 +1151,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1134,10 +1161,10 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
-      </c>
-      <c r="F17" s="3">
-        <v>300</v>
       </c>
       <c r="G17" s="3">
         <v>300</v>
@@ -1146,28 +1173,28 @@
         <v>300</v>
       </c>
       <c r="I17" s="3">
+        <v>300</v>
+      </c>
+      <c r="J17" s="3">
         <v>400</v>
-      </c>
-      <c r="J17" s="3">
-        <v>300</v>
       </c>
       <c r="K17" s="3">
         <v>300</v>
       </c>
       <c r="L17" s="3">
+        <v>300</v>
+      </c>
+      <c r="M17" s="3">
         <v>400</v>
-      </c>
-      <c r="M17" s="3">
-        <v>300</v>
       </c>
       <c r="N17" s="3">
         <v>300</v>
       </c>
       <c r="O17" s="3">
+        <v>300</v>
+      </c>
+      <c r="P17" s="3">
         <v>400</v>
-      </c>
-      <c r="P17" s="3">
-        <v>300</v>
       </c>
       <c r="Q17" s="3">
         <v>300</v>
@@ -1175,8 +1202,11 @@
       <c r="R17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,11 +1214,11 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
-        <v>-300</v>
-      </c>
       <c r="G18" s="3">
         <v>-300</v>
       </c>
@@ -1196,37 +1226,40 @@
         <v>-300</v>
       </c>
       <c r="I18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
-        <v>-300</v>
-      </c>
       <c r="K18" s="3">
         <v>-300</v>
       </c>
       <c r="L18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
-        <v>-300</v>
-      </c>
       <c r="N18" s="3">
         <v>-300</v>
       </c>
       <c r="O18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
-        <v>-300</v>
-      </c>
       <c r="Q18" s="3">
         <v>-300</v>
       </c>
       <c r="R18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1295,8 +1329,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1345,8 +1382,11 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,8 +1435,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1404,7 +1447,7 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
         <v>-200</v>
@@ -1413,40 +1456,43 @@
         <v>-200</v>
       </c>
       <c r="H23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="I23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
-        <v>-300</v>
-      </c>
       <c r="K23" s="3">
         <v>-300</v>
       </c>
       <c r="L23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
-        <v>-300</v>
-      </c>
       <c r="N23" s="3">
         <v>-300</v>
       </c>
       <c r="O23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
-        <v>-300</v>
-      </c>
       <c r="Q23" s="3">
         <v>-300</v>
       </c>
       <c r="R23" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,8 +1594,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1554,7 +1606,7 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
         <v>-200</v>
@@ -1563,40 +1615,43 @@
         <v>-200</v>
       </c>
       <c r="H26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="I26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
-        <v>-300</v>
-      </c>
       <c r="K26" s="3">
         <v>-300</v>
       </c>
       <c r="L26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
-        <v>-300</v>
-      </c>
       <c r="N26" s="3">
         <v>-300</v>
       </c>
       <c r="O26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
-        <v>-300</v>
-      </c>
       <c r="Q26" s="3">
         <v>-300</v>
       </c>
       <c r="R26" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1604,7 +1659,7 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
         <v>-200</v>
@@ -1613,40 +1668,43 @@
         <v>-200</v>
       </c>
       <c r="H27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="I27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
-        <v>-300</v>
-      </c>
       <c r="K27" s="3">
         <v>-300</v>
       </c>
       <c r="L27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
-        <v>-300</v>
-      </c>
       <c r="N27" s="3">
         <v>-300</v>
       </c>
       <c r="O27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
-        <v>-300</v>
-      </c>
       <c r="Q27" s="3">
         <v>-300</v>
       </c>
       <c r="R27" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1895,8 +1965,11 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1904,7 +1977,7 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
         <v>-200</v>
@@ -1913,40 +1986,43 @@
         <v>-200</v>
       </c>
       <c r="H33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="I33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
-        <v>-300</v>
-      </c>
       <c r="K33" s="3">
         <v>-300</v>
       </c>
       <c r="L33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
-        <v>-300</v>
-      </c>
       <c r="N33" s="3">
         <v>-300</v>
       </c>
       <c r="O33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
-        <v>-300</v>
-      </c>
       <c r="Q33" s="3">
         <v>-300</v>
       </c>
       <c r="R33" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,8 +2071,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2004,7 +2083,7 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
         <v>-200</v>
@@ -2013,95 +2092,101 @@
         <v>-200</v>
       </c>
       <c r="H35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="I35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
-        <v>-300</v>
-      </c>
       <c r="K35" s="3">
         <v>-300</v>
       </c>
       <c r="L35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
-        <v>-300</v>
-      </c>
       <c r="N35" s="3">
         <v>-300</v>
       </c>
       <c r="O35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
-        <v>-300</v>
-      </c>
       <c r="Q35" s="3">
         <v>-300</v>
       </c>
       <c r="R35" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,66 +2226,70 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E41" s="3">
         <v>4300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -2208,20 +2298,20 @@
         <v>0</v>
       </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>1500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>4900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>3600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3500</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2252,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
@@ -2264,7 +2357,7 @@
         <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2276,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
         <v>100</v>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2390,58 +2489,64 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E46" s="3">
         <v>4300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2502,16 +2610,16 @@
         <v>0</v>
       </c>
       <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
         <v>100</v>
-      </c>
-      <c r="G48" s="3">
-        <v>300</v>
       </c>
       <c r="H48" s="3">
         <v>300</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E54" s="3">
         <v>4300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,8 +3114,11 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2992,7 +3129,7 @@
         <v>200</v>
       </c>
       <c r="F59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G59" s="3">
         <v>300</v>
@@ -3004,13 +3141,13 @@
         <v>300</v>
       </c>
       <c r="J59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K59" s="3">
         <v>200</v>
       </c>
       <c r="L59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>300</v>
@@ -3022,7 +3159,7 @@
         <v>300</v>
       </c>
       <c r="P59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q59" s="3">
         <v>200</v>
@@ -3030,8 +3167,11 @@
       <c r="R59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3042,7 +3182,7 @@
         <v>200</v>
       </c>
       <c r="F60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G60" s="3">
         <v>300</v>
@@ -3054,13 +3194,13 @@
         <v>300</v>
       </c>
       <c r="J60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K60" s="3">
         <v>200</v>
       </c>
       <c r="L60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M60" s="3">
         <v>300</v>
@@ -3072,7 +3212,7 @@
         <v>300</v>
       </c>
       <c r="P60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q60" s="3">
         <v>200</v>
@@ -3080,8 +3220,11 @@
       <c r="R60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3144,14 +3290,14 @@
       <c r="F62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="3">
-        <v>100</v>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="I62" s="3">
+        <v>100</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -3162,8 +3308,8 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,8 +3485,11 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3342,25 +3500,25 @@
         <v>200</v>
       </c>
       <c r="F66" s="3">
+        <v>200</v>
+      </c>
+      <c r="G66" s="3">
         <v>300</v>
-      </c>
-      <c r="G66" s="3">
-        <v>400</v>
       </c>
       <c r="H66" s="3">
         <v>400</v>
       </c>
       <c r="I66" s="3">
+        <v>400</v>
+      </c>
+      <c r="J66" s="3">
         <v>300</v>
-      </c>
-      <c r="J66" s="3">
-        <v>200</v>
       </c>
       <c r="K66" s="3">
         <v>200</v>
       </c>
       <c r="L66" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M66" s="3">
         <v>300</v>
@@ -3372,7 +3530,7 @@
         <v>300</v>
       </c>
       <c r="P66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q66" s="3">
         <v>200</v>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="3">
         <v>-142700</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J72" s="3">
         <v>-141700</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N72" s="3">
         <v>-140300</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R72" s="3">
         <v>-139100</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,63 +4089,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3964,7 +4159,7 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
         <v>-200</v>
@@ -3973,40 +4168,43 @@
         <v>-200</v>
       </c>
       <c r="H81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="I81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
-        <v>-300</v>
-      </c>
       <c r="K81" s="3">
         <v>-300</v>
       </c>
       <c r="L81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
-        <v>-300</v>
-      </c>
       <c r="N81" s="3">
         <v>-300</v>
       </c>
       <c r="O81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
-        <v>-300</v>
-      </c>
       <c r="Q81" s="3">
         <v>-300</v>
       </c>
       <c r="R81" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TIKRF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TIKRF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t>TIKRF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -933,8 +947,8 @@
       <c r="E12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="3">
-        <v>100</v>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G12" s="3">
         <v>100</v>
@@ -946,25 +960,25 @@
         <v>100</v>
       </c>
       <c r="J12" s="3">
+        <v>100</v>
+      </c>
+      <c r="K12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>100</v>
-      </c>
-      <c r="L12" s="3">
-        <v>200</v>
       </c>
       <c r="M12" s="3">
         <v>200</v>
       </c>
       <c r="N12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O12" s="3">
         <v>100</v>
       </c>
       <c r="P12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="3">
         <v>200</v>
@@ -975,8 +989,11 @@
       <c r="S12" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1178,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1164,10 +1191,10 @@
         <v>100</v>
       </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>200</v>
-      </c>
-      <c r="G17" s="3">
-        <v>300</v>
       </c>
       <c r="H17" s="3">
         <v>300</v>
@@ -1176,28 +1203,28 @@
         <v>300</v>
       </c>
       <c r="J17" s="3">
+        <v>300</v>
+      </c>
+      <c r="K17" s="3">
         <v>400</v>
-      </c>
-      <c r="K17" s="3">
-        <v>300</v>
       </c>
       <c r="L17" s="3">
         <v>300</v>
       </c>
       <c r="M17" s="3">
+        <v>300</v>
+      </c>
+      <c r="N17" s="3">
         <v>400</v>
-      </c>
-      <c r="N17" s="3">
-        <v>300</v>
       </c>
       <c r="O17" s="3">
         <v>300</v>
       </c>
       <c r="P17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q17" s="3">
         <v>400</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>300</v>
       </c>
       <c r="R17" s="3">
         <v>300</v>
@@ -1205,8 +1232,11 @@
       <c r="S17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1217,11 +1247,11 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
-        <v>-300</v>
-      </c>
       <c r="H18" s="3">
         <v>-300</v>
       </c>
@@ -1229,37 +1259,40 @@
         <v>-300</v>
       </c>
       <c r="J18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
-        <v>-300</v>
-      </c>
       <c r="L18" s="3">
         <v>-300</v>
       </c>
       <c r="M18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
-        <v>-300</v>
-      </c>
       <c r="O18" s="3">
         <v>-300</v>
       </c>
       <c r="P18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
-        <v>-300</v>
-      </c>
       <c r="R18" s="3">
         <v>-300</v>
       </c>
       <c r="S18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1385,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,8 +1478,11 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1450,7 +1493,7 @@
         <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
         <v>-200</v>
@@ -1459,40 +1502,43 @@
         <v>-200</v>
       </c>
       <c r="I23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="J23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
-        <v>-300</v>
-      </c>
       <c r="L23" s="3">
         <v>-300</v>
       </c>
       <c r="M23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
-        <v>-300</v>
-      </c>
       <c r="O23" s="3">
         <v>-300</v>
       </c>
       <c r="P23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
-        <v>-300</v>
-      </c>
       <c r="R23" s="3">
         <v>-300</v>
       </c>
       <c r="S23" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1646,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1609,7 +1661,7 @@
         <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
         <v>-200</v>
@@ -1618,40 +1670,43 @@
         <v>-200</v>
       </c>
       <c r="I26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="J26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
-        <v>-300</v>
-      </c>
       <c r="L26" s="3">
         <v>-300</v>
       </c>
       <c r="M26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
-        <v>-300</v>
-      </c>
       <c r="O26" s="3">
         <v>-300</v>
       </c>
       <c r="P26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
-        <v>-300</v>
-      </c>
       <c r="R26" s="3">
         <v>-300</v>
       </c>
       <c r="S26" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1662,7 +1717,7 @@
         <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
         <v>-200</v>
@@ -1671,40 +1726,43 @@
         <v>-200</v>
       </c>
       <c r="I27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="J27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
-        <v>-300</v>
-      </c>
       <c r="L27" s="3">
         <v>-300</v>
       </c>
       <c r="M27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
-        <v>-300</v>
-      </c>
       <c r="O27" s="3">
         <v>-300</v>
       </c>
       <c r="P27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
-        <v>-300</v>
-      </c>
       <c r="R27" s="3">
         <v>-300</v>
       </c>
       <c r="S27" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,8 +2038,11 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1980,7 +2053,7 @@
         <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
         <v>-200</v>
@@ -1989,40 +2062,43 @@
         <v>-200</v>
       </c>
       <c r="I33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="J33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
-        <v>-300</v>
-      </c>
       <c r="L33" s="3">
         <v>-300</v>
       </c>
       <c r="M33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
-        <v>-300</v>
-      </c>
       <c r="O33" s="3">
         <v>-300</v>
       </c>
       <c r="P33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
-        <v>-300</v>
-      </c>
       <c r="R33" s="3">
         <v>-300</v>
       </c>
       <c r="S33" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2150,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2086,7 +2165,7 @@
         <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
         <v>-200</v>
@@ -2095,98 +2174,104 @@
         <v>-200</v>
       </c>
       <c r="I35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="J35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
-        <v>-300</v>
-      </c>
       <c r="L35" s="3">
         <v>-300</v>
       </c>
       <c r="M35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
-        <v>-300</v>
-      </c>
       <c r="O35" s="3">
         <v>-300</v>
       </c>
       <c r="P35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
-        <v>-300</v>
-      </c>
       <c r="R35" s="3">
         <v>-300</v>
       </c>
       <c r="S35" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E41" s="3">
         <v>4200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2291,8 +2381,8 @@
       <c r="E42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -2301,20 +2391,20 @@
         <v>0</v>
       </c>
       <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
         <v>1500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>4900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3500</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2333,13 +2423,16 @@
       <c r="S42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -2348,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
@@ -2360,7 +2453,7 @@
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2372,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
         <v>100</v>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,31 +2535,34 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2492,61 +2591,67 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E46" s="3">
         <v>4200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2613,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
         <v>100</v>
-      </c>
-      <c r="H48" s="3">
-        <v>300</v>
       </c>
       <c r="I48" s="3">
         <v>300</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E54" s="3">
         <v>4200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,8 +3251,11 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3132,7 +3269,7 @@
         <v>200</v>
       </c>
       <c r="G59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H59" s="3">
         <v>300</v>
@@ -3144,13 +3281,13 @@
         <v>300</v>
       </c>
       <c r="K59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L59" s="3">
         <v>200</v>
       </c>
       <c r="M59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N59" s="3">
         <v>300</v>
@@ -3162,7 +3299,7 @@
         <v>300</v>
       </c>
       <c r="Q59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R59" s="3">
         <v>200</v>
@@ -3170,8 +3307,11 @@
       <c r="S59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3185,7 +3325,7 @@
         <v>200</v>
       </c>
       <c r="G60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H60" s="3">
         <v>300</v>
@@ -3197,13 +3337,13 @@
         <v>300</v>
       </c>
       <c r="K60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L60" s="3">
         <v>200</v>
       </c>
       <c r="M60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N60" s="3">
         <v>300</v>
@@ -3215,7 +3355,7 @@
         <v>300</v>
       </c>
       <c r="Q60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R60" s="3">
         <v>200</v>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3293,14 +3439,14 @@
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H62" s="3">
-        <v>100</v>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
+      <c r="J62" s="3">
+        <v>100</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
@@ -3311,8 +3457,8 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,8 +3643,11 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3503,25 +3661,25 @@
         <v>200</v>
       </c>
       <c r="G66" s="3">
+        <v>200</v>
+      </c>
+      <c r="H66" s="3">
         <v>300</v>
-      </c>
-      <c r="H66" s="3">
-        <v>400</v>
       </c>
       <c r="I66" s="3">
         <v>400</v>
       </c>
       <c r="J66" s="3">
+        <v>400</v>
+      </c>
+      <c r="K66" s="3">
         <v>300</v>
-      </c>
-      <c r="K66" s="3">
-        <v>200</v>
       </c>
       <c r="L66" s="3">
         <v>200</v>
       </c>
       <c r="M66" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N66" s="3">
         <v>300</v>
@@ -3533,7 +3691,7 @@
         <v>300</v>
       </c>
       <c r="Q66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R66" s="3">
         <v>200</v>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,8 +3945,11 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3785,50 +3959,53 @@
       <c r="E72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" s="3">
         <v>-142700</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K72" s="3">
         <v>-141700</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O72" s="3">
         <v>-140300</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S72" s="3">
         <v>-139100</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E76" s="3">
         <v>4000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4281,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4162,7 +4357,7 @@
         <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
         <v>-200</v>
@@ -4171,40 +4366,43 @@
         <v>-200</v>
       </c>
       <c r="I81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="J81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
-        <v>-300</v>
-      </c>
       <c r="L81" s="3">
         <v>-300</v>
       </c>
       <c r="M81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
-        <v>-300</v>
-      </c>
       <c r="O81" s="3">
         <v>-300</v>
       </c>
       <c r="P81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
-        <v>-300</v>
-      </c>
       <c r="R81" s="3">
         <v>-300</v>
       </c>
       <c r="S81" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TIKRF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TIKRF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>TIKRF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,92 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +805,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -950,8 +963,8 @@
       <c r="F12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="3">
-        <v>100</v>
+      <c r="G12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
@@ -963,25 +976,25 @@
         <v>100</v>
       </c>
       <c r="K12" s="3">
+        <v>100</v>
+      </c>
+      <c r="L12" s="3">
         <v>200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>100</v>
-      </c>
-      <c r="M12" s="3">
-        <v>200</v>
       </c>
       <c r="N12" s="3">
         <v>200</v>
       </c>
       <c r="O12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P12" s="3">
         <v>100</v>
       </c>
       <c r="Q12" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R12" s="3">
         <v>200</v>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,13 +1204,14 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
@@ -1194,10 +1220,10 @@
         <v>100</v>
       </c>
       <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
         <v>200</v>
-      </c>
-      <c r="H17" s="3">
-        <v>300</v>
       </c>
       <c r="I17" s="3">
         <v>300</v>
@@ -1206,28 +1232,28 @@
         <v>300</v>
       </c>
       <c r="K17" s="3">
+        <v>300</v>
+      </c>
+      <c r="L17" s="3">
         <v>400</v>
-      </c>
-      <c r="L17" s="3">
-        <v>300</v>
       </c>
       <c r="M17" s="3">
         <v>300</v>
       </c>
       <c r="N17" s="3">
+        <v>300</v>
+      </c>
+      <c r="O17" s="3">
         <v>400</v>
-      </c>
-      <c r="O17" s="3">
-        <v>300</v>
       </c>
       <c r="P17" s="3">
         <v>300</v>
       </c>
       <c r="Q17" s="3">
+        <v>300</v>
+      </c>
+      <c r="R17" s="3">
         <v>400</v>
-      </c>
-      <c r="R17" s="3">
-        <v>300</v>
       </c>
       <c r="S17" s="3">
         <v>300</v>
@@ -1235,8 +1261,11 @@
       <c r="T17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1250,10 +1279,10 @@
         <v>-100</v>
       </c>
       <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-200</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-300</v>
       </c>
       <c r="I18" s="3">
         <v>-300</v>
@@ -1262,28 +1291,28 @@
         <v>-300</v>
       </c>
       <c r="K18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L18" s="3">
         <v>-400</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-300</v>
       </c>
       <c r="M18" s="3">
         <v>-300</v>
       </c>
       <c r="N18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O18" s="3">
         <v>-400</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-300</v>
       </c>
       <c r="P18" s="3">
         <v>-300</v>
       </c>
       <c r="Q18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R18" s="3">
         <v>-400</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-300</v>
       </c>
       <c r="S18" s="3">
         <v>-300</v>
@@ -1291,8 +1320,11 @@
       <c r="T18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,8 +1402,11 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1425,8 +1461,11 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,13 +1520,16 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
@@ -1496,7 +1538,7 @@
         <v>-100</v>
       </c>
       <c r="G23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H23" s="3">
         <v>-200</v>
@@ -1505,31 +1547,31 @@
         <v>-200</v>
       </c>
       <c r="J23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-300</v>
       </c>
       <c r="M23" s="3">
         <v>-300</v>
       </c>
       <c r="N23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O23" s="3">
         <v>-400</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-300</v>
       </c>
       <c r="P23" s="3">
         <v>-300</v>
       </c>
       <c r="Q23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R23" s="3">
         <v>-400</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-300</v>
       </c>
       <c r="S23" s="3">
         <v>-300</v>
@@ -1537,8 +1579,11 @@
       <c r="T23" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,13 +1697,16 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
@@ -1664,7 +1715,7 @@
         <v>-100</v>
       </c>
       <c r="G26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H26" s="3">
         <v>-200</v>
@@ -1673,31 +1724,31 @@
         <v>-200</v>
       </c>
       <c r="J26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-300</v>
       </c>
       <c r="M26" s="3">
         <v>-300</v>
       </c>
       <c r="N26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O26" s="3">
         <v>-400</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-300</v>
       </c>
       <c r="P26" s="3">
         <v>-300</v>
       </c>
       <c r="Q26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R26" s="3">
         <v>-400</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-300</v>
       </c>
       <c r="S26" s="3">
         <v>-300</v>
@@ -1705,13 +1756,16 @@
       <c r="T26" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
@@ -1720,7 +1774,7 @@
         <v>-100</v>
       </c>
       <c r="G27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H27" s="3">
         <v>-200</v>
@@ -1729,31 +1783,31 @@
         <v>-200</v>
       </c>
       <c r="J27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-300</v>
       </c>
       <c r="M27" s="3">
         <v>-300</v>
       </c>
       <c r="N27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O27" s="3">
         <v>-400</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-300</v>
       </c>
       <c r="P27" s="3">
         <v>-300</v>
       </c>
       <c r="Q27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R27" s="3">
         <v>-400</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-300</v>
       </c>
       <c r="S27" s="3">
         <v>-300</v>
@@ -1761,8 +1815,11 @@
       <c r="T27" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2041,13 +2110,16 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
@@ -2056,7 +2128,7 @@
         <v>-100</v>
       </c>
       <c r="G33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H33" s="3">
         <v>-200</v>
@@ -2065,31 +2137,31 @@
         <v>-200</v>
       </c>
       <c r="J33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-300</v>
       </c>
       <c r="M33" s="3">
         <v>-300</v>
       </c>
       <c r="N33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O33" s="3">
         <v>-400</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-300</v>
       </c>
       <c r="P33" s="3">
         <v>-300</v>
       </c>
       <c r="Q33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R33" s="3">
         <v>-400</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-300</v>
       </c>
       <c r="S33" s="3">
         <v>-300</v>
@@ -2097,8 +2169,11 @@
       <c r="T33" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,13 +2228,16 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
@@ -2168,7 +2246,7 @@
         <v>-100</v>
       </c>
       <c r="G35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H35" s="3">
         <v>-200</v>
@@ -2177,31 +2255,31 @@
         <v>-200</v>
       </c>
       <c r="J35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-300</v>
       </c>
       <c r="M35" s="3">
         <v>-300</v>
       </c>
       <c r="N35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O35" s="3">
         <v>-400</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-300</v>
       </c>
       <c r="P35" s="3">
         <v>-300</v>
       </c>
       <c r="Q35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R35" s="3">
         <v>-400</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-300</v>
       </c>
       <c r="S35" s="3">
         <v>-300</v>
@@ -2209,69 +2287,75 @@
       <c r="T35" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2399,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2323,55 +2409,58 @@
         <v>3900</v>
       </c>
       <c r="E41" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F41" s="3">
         <v>4200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2384,8 +2473,8 @@
       <c r="F42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
+      <c r="G42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -2394,20 +2483,20 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>1500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3500</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2426,8 +2515,11 @@
       <c r="T42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2435,7 +2527,7 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2444,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
@@ -2456,7 +2548,7 @@
         <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2468,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
@@ -2482,8 +2574,11 @@
       <c r="T43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,17 +2633,20 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2564,8 +2662,8 @@
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2594,64 +2692,70 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E46" s="3">
         <v>4100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2810,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2724,16 +2831,16 @@
         <v>0</v>
       </c>
       <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
         <v>100</v>
-      </c>
-      <c r="I48" s="3">
-        <v>300</v>
       </c>
       <c r="J48" s="3">
         <v>300</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
@@ -2762,8 +2869,11 @@
       <c r="T48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E54" s="3">
         <v>4100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3271,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3198,8 +3328,11 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,8 +3387,11 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3272,7 +3408,7 @@
         <v>200</v>
       </c>
       <c r="H59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>300</v>
@@ -3284,13 +3420,13 @@
         <v>300</v>
       </c>
       <c r="L59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M59" s="3">
         <v>200</v>
       </c>
       <c r="N59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O59" s="3">
         <v>300</v>
@@ -3302,7 +3438,7 @@
         <v>300</v>
       </c>
       <c r="R59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S59" s="3">
         <v>200</v>
@@ -3310,8 +3446,11 @@
       <c r="T59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3328,7 +3467,7 @@
         <v>200</v>
       </c>
       <c r="H60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I60" s="3">
         <v>300</v>
@@ -3340,13 +3479,13 @@
         <v>300</v>
       </c>
       <c r="L60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M60" s="3">
         <v>200</v>
       </c>
       <c r="N60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O60" s="3">
         <v>300</v>
@@ -3358,7 +3497,7 @@
         <v>300</v>
       </c>
       <c r="R60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S60" s="3">
         <v>200</v>
@@ -3366,8 +3505,11 @@
       <c r="T60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3564,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3442,14 +3587,14 @@
       <c r="H62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="3">
-        <v>100</v>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3">
+        <v>100</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
@@ -3460,8 +3605,8 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,8 +3800,11 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3664,25 +3821,25 @@
         <v>200</v>
       </c>
       <c r="H66" s="3">
+        <v>200</v>
+      </c>
+      <c r="I66" s="3">
         <v>300</v>
-      </c>
-      <c r="I66" s="3">
-        <v>400</v>
       </c>
       <c r="J66" s="3">
         <v>400</v>
       </c>
       <c r="K66" s="3">
+        <v>400</v>
+      </c>
+      <c r="L66" s="3">
         <v>300</v>
-      </c>
-      <c r="L66" s="3">
-        <v>200</v>
       </c>
       <c r="M66" s="3">
         <v>200</v>
       </c>
       <c r="N66" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O66" s="3">
         <v>300</v>
@@ -3694,7 +3851,7 @@
         <v>300</v>
       </c>
       <c r="R66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S66" s="3">
         <v>200</v>
@@ -3702,8 +3859,11 @@
       <c r="T66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,13 +4118,16 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>4</v>
+      <c r="D72" s="3">
+        <v>-143100</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>4</v>
@@ -3962,50 +4135,53 @@
       <c r="F72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H72" s="3">
         <v>-142700</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L72" s="3">
         <v>-141700</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P72" s="3">
         <v>-140300</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T72" s="3">
         <v>-139100</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E76" s="3">
         <v>3900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,74 +4472,80 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
@@ -4360,7 +4554,7 @@
         <v>-100</v>
       </c>
       <c r="G81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H81" s="3">
         <v>-200</v>
@@ -4369,31 +4563,31 @@
         <v>-200</v>
       </c>
       <c r="J81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-300</v>
       </c>
       <c r="M81" s="3">
         <v>-300</v>
       </c>
       <c r="N81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O81" s="3">
         <v>-400</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-300</v>
       </c>
       <c r="P81" s="3">
         <v>-300</v>
       </c>
       <c r="Q81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R81" s="3">
         <v>-400</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-300</v>
       </c>
       <c r="S81" s="3">
         <v>-300</v>
@@ -4401,8 +4595,11 @@
       <c r="T81" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4972,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4815,8 +5031,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5549,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5363,8 +5608,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5667,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5473,6 +5724,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>
